--- a/List of cards.xlsx
+++ b/List of cards.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aidancannon/Desktop/DoMC cardgame1 /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8A62B1-B5DA-C641-A297-F74359BDF974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DFE108-D8F7-AC49-8023-140391CC898F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4640" yWindow="1420" windowWidth="30360" windowHeight="16940" xr2:uid="{D9241F2B-2339-AC40-B733-4CE723EC9E3B}"/>
+    <workbookView xWindow="360" yWindow="4420" windowWidth="30360" windowHeight="16940" xr2:uid="{D9241F2B-2339-AC40-B733-4CE723EC9E3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Simple 2player list" sheetId="3" r:id="rId1"/>
-    <sheet name="Master List" sheetId="1" r:id="rId2"/>
-    <sheet name="Simple working list 1" sheetId="2" r:id="rId3"/>
+    <sheet name="Ideas for cards" sheetId="4" r:id="rId2"/>
+    <sheet name="Master List" sheetId="1" r:id="rId3"/>
+    <sheet name="Simple working list 1" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="65">
   <si>
     <t>Name</t>
   </si>
@@ -182,9 +184,6 @@
     <t>When played: Destroy one card face up on your field</t>
   </si>
   <si>
-    <t>When played: Flip a coin. If heads, this card gains +500 points</t>
-  </si>
-  <si>
     <t>Gambler</t>
   </si>
   <si>
@@ -200,12 +199,6 @@
     <t>When played: select one opponents card. Give this card to your opponnent, and place the targeted card face up on your field.</t>
   </si>
   <si>
-    <t>(This card can only be played if all players control at least 1 card)</t>
-  </si>
-  <si>
-    <t>(This card can only be played if you control no cards)</t>
-  </si>
-  <si>
     <t>First in Line</t>
   </si>
   <si>
@@ -237,6 +230,15 @@
   </si>
   <si>
     <t>Greedy man</t>
+  </si>
+  <si>
+    <t>When played: Flip a coin. If heads, put a counter on this card. This card gains +500 points if it has a counter on it.</t>
+  </si>
+  <si>
+    <t>When played: If you control no cards, place a counter on this card. If this card has a counter on it, it has +1500 points.</t>
+  </si>
+  <si>
+    <t>When played: (If each player controls at least 1 card) place a counter on this card. If this card has a counter on it, it thas +700 points.</t>
   </si>
 </sst>
 </file>
@@ -595,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A47B45-4CF9-A74D-8CD7-0D9287BD32BC}">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -637,7 +639,7 @@
         <v>36</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="38">
@@ -691,7 +693,7 @@
     </row>
     <row r="7" spans="1:14" ht="114">
       <c r="A7" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>45</v>
@@ -700,12 +702,12 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="114">
+    <row r="8" spans="1:14" ht="228">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="H8" s="1">
         <v>400</v>
@@ -713,10 +715,10 @@
     </row>
     <row r="9" spans="1:14" ht="171">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H9" s="1">
         <v>100</v>
@@ -724,40 +726,40 @@
     </row>
     <row r="10" spans="1:14" ht="247">
       <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="H10" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="133">
+    <row r="11" spans="1:14" ht="266">
       <c r="A11" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="H11" s="1">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="247">
       <c r="A12" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="H12" s="1">
-        <v>1500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="19">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H13" s="1">
         <v>300</v>
@@ -765,10 +767,10 @@
     </row>
     <row r="14" spans="1:14" ht="152">
       <c r="A14" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H14" s="1">
         <v>400</v>
@@ -776,10 +778,10 @@
     </row>
     <row r="15" spans="1:14" ht="114">
       <c r="A15" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H15" s="1">
         <v>500</v>
@@ -787,10 +789,10 @@
     </row>
     <row r="16" spans="1:14" ht="114">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H16" s="1">
         <v>500</v>
@@ -802,10 +804,63 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B8BB9C-6C1E-2F49-8D3F-0B45ABAA03CB}">
+  <dimension ref="A1:N1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:14" ht="38">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E40D41-C2F3-D041-8DD4-831B8862BCBC}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
@@ -1010,7 +1065,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666DD64E-65BE-C04D-B4FC-091D775162C6}">
   <dimension ref="B1:H5"/>
   <sheetViews>
@@ -1096,4 +1151,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{685B6F47-A34C-514E-A329-8F232F871DF3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>